--- a/xlsx/深泉学院_intext.xlsx
+++ b/xlsx/深泉学院_intext.xlsx
@@ -15,7 +15,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="127">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="126">
   <si>
     <t>深泉学院</t>
   </si>
@@ -29,7 +29,7 @@
     <t>校训</t>
   </si>
   <si>
-    <t>政策_政策_美國_深泉学院</t>
+    <t>政策_政策_美国_深泉学院</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E7%A7%81%E7%AB%8B%E5%AD%A6%E6%A0%A1</t>
@@ -41,13 +41,13 @@
     <t>https://zh.wikipedia.org/wiki/%E6%A0%A1%E9%95%B7</t>
   </si>
   <si>
-    <t>校長</t>
+    <t>校长</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E7%BE%8E%E5%9C%8B</t>
   </si>
   <si>
-    <t>美國</t>
+    <t>美国</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E5%8A%A0%E5%88%A9%E7%A6%8F%E5%B0%BC%E4%BA%9A</t>
@@ -65,15 +65,12 @@
     <t>https://zh.wikipedia.org/wiki/%E6%B7%B1%E6%B3%89_(%E5%8A%A0%E5%88%A9%E7%A6%8F%E5%B0%BC%E4%BA%9E%E5%B7%9E)</t>
   </si>
   <si>
-    <t>深泉 (加利福尼亞州)</t>
+    <t>深泉 (加利福尼亚州)</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E7%BE%8E%E5%9B%BD</t>
   </si>
   <si>
-    <t>美国</t>
-  </si>
-  <si>
     <t>https://zh.wikipedia.org/wiki/%E5%8A%A0%E5%88%A9%E7%A6%8F%E5%B0%BC%E4%BA%9A%E5%B7%9E</t>
   </si>
   <si>
@@ -113,7 +110,7 @@
     <t>https://zh.wikipedia.org/wiki/%E7%8D%8E%E5%AD%B8%E9%87%91</t>
   </si>
   <si>
-    <t>獎學金</t>
+    <t>奖学金</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E5%93%88%E4%BD%9B%E5%A4%A7%E5%AD%A6</t>
@@ -143,7 +140,7 @@
     <t>https://zh.wikipedia.org/wiki/%E5%AD%B8%E5%A3%AB%E5%AD%B8%E4%BD%8D</t>
   </si>
   <si>
-    <t>學士學位</t>
+    <t>学士学位</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E5%8D%9A%E5%A3%AB%E5%AD%A6%E4%BD%8D</t>
@@ -179,7 +176,7 @@
     <t>https://zh.wikipedia.org/wiki/%E5%A4%AA%E5%B9%B3%E6%B4%8B%E7%93%A6%E9%9B%BB%E5%85%AC%E5%8F%B8</t>
   </si>
   <si>
-    <t>太平洋瓦電公司</t>
+    <t>太平洋瓦电公司</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E6%80%80%E7%89%B9%E5%B1%B1%E8%84%89</t>
@@ -998,7 +995,7 @@
         <v>17</v>
       </c>
       <c r="F9" t="s">
-        <v>18</v>
+        <v>10</v>
       </c>
       <c r="G9" t="n">
         <v>6</v>
@@ -1024,10 +1021,10 @@
         <v>9</v>
       </c>
       <c r="E10" t="s">
+        <v>18</v>
+      </c>
+      <c r="F10" t="s">
         <v>19</v>
-      </c>
-      <c r="F10" t="s">
-        <v>20</v>
       </c>
       <c r="G10" t="n">
         <v>4</v>
@@ -1053,10 +1050,10 @@
         <v>10</v>
       </c>
       <c r="E11" t="s">
+        <v>20</v>
+      </c>
+      <c r="F11" t="s">
         <v>21</v>
-      </c>
-      <c r="F11" t="s">
-        <v>22</v>
       </c>
       <c r="G11" t="n">
         <v>2</v>
@@ -1082,10 +1079,10 @@
         <v>11</v>
       </c>
       <c r="E12" t="s">
+        <v>22</v>
+      </c>
+      <c r="F12" t="s">
         <v>23</v>
-      </c>
-      <c r="F12" t="s">
-        <v>24</v>
       </c>
       <c r="G12" t="n">
         <v>1</v>
@@ -1111,10 +1108,10 @@
         <v>12</v>
       </c>
       <c r="E13" t="s">
+        <v>24</v>
+      </c>
+      <c r="F13" t="s">
         <v>25</v>
-      </c>
-      <c r="F13" t="s">
-        <v>26</v>
       </c>
       <c r="G13" t="n">
         <v>1</v>
@@ -1140,10 +1137,10 @@
         <v>13</v>
       </c>
       <c r="E14" t="s">
+        <v>26</v>
+      </c>
+      <c r="F14" t="s">
         <v>27</v>
-      </c>
-      <c r="F14" t="s">
-        <v>28</v>
       </c>
       <c r="G14" t="n">
         <v>2</v>
@@ -1169,10 +1166,10 @@
         <v>14</v>
       </c>
       <c r="E15" t="s">
+        <v>28</v>
+      </c>
+      <c r="F15" t="s">
         <v>29</v>
-      </c>
-      <c r="F15" t="s">
-        <v>30</v>
       </c>
       <c r="G15" t="n">
         <v>1</v>
@@ -1198,10 +1195,10 @@
         <v>15</v>
       </c>
       <c r="E16" t="s">
+        <v>30</v>
+      </c>
+      <c r="F16" t="s">
         <v>31</v>
-      </c>
-      <c r="F16" t="s">
-        <v>32</v>
       </c>
       <c r="G16" t="n">
         <v>4</v>
@@ -1227,10 +1224,10 @@
         <v>16</v>
       </c>
       <c r="E17" t="s">
+        <v>32</v>
+      </c>
+      <c r="F17" t="s">
         <v>33</v>
-      </c>
-      <c r="F17" t="s">
-        <v>34</v>
       </c>
       <c r="G17" t="n">
         <v>1</v>
@@ -1256,10 +1253,10 @@
         <v>17</v>
       </c>
       <c r="E18" t="s">
+        <v>34</v>
+      </c>
+      <c r="F18" t="s">
         <v>35</v>
-      </c>
-      <c r="F18" t="s">
-        <v>36</v>
       </c>
       <c r="G18" t="n">
         <v>1</v>
@@ -1285,10 +1282,10 @@
         <v>18</v>
       </c>
       <c r="E19" t="s">
+        <v>36</v>
+      </c>
+      <c r="F19" t="s">
         <v>37</v>
-      </c>
-      <c r="F19" t="s">
-        <v>38</v>
       </c>
       <c r="G19" t="n">
         <v>1</v>
@@ -1314,10 +1311,10 @@
         <v>19</v>
       </c>
       <c r="E20" t="s">
+        <v>38</v>
+      </c>
+      <c r="F20" t="s">
         <v>39</v>
-      </c>
-      <c r="F20" t="s">
-        <v>40</v>
       </c>
       <c r="G20" t="n">
         <v>1</v>
@@ -1343,10 +1340,10 @@
         <v>20</v>
       </c>
       <c r="E21" t="s">
+        <v>40</v>
+      </c>
+      <c r="F21" t="s">
         <v>41</v>
-      </c>
-      <c r="F21" t="s">
-        <v>42</v>
       </c>
       <c r="G21" t="n">
         <v>2</v>
@@ -1372,10 +1369,10 @@
         <v>21</v>
       </c>
       <c r="E22" t="s">
+        <v>42</v>
+      </c>
+      <c r="F22" t="s">
         <v>43</v>
-      </c>
-      <c r="F22" t="s">
-        <v>44</v>
       </c>
       <c r="G22" t="n">
         <v>1</v>
@@ -1401,10 +1398,10 @@
         <v>22</v>
       </c>
       <c r="E23" t="s">
+        <v>44</v>
+      </c>
+      <c r="F23" t="s">
         <v>45</v>
-      </c>
-      <c r="F23" t="s">
-        <v>46</v>
       </c>
       <c r="G23" t="n">
         <v>1</v>
@@ -1430,10 +1427,10 @@
         <v>23</v>
       </c>
       <c r="E24" t="s">
+        <v>46</v>
+      </c>
+      <c r="F24" t="s">
         <v>47</v>
-      </c>
-      <c r="F24" t="s">
-        <v>48</v>
       </c>
       <c r="G24" t="n">
         <v>1</v>
@@ -1459,10 +1456,10 @@
         <v>24</v>
       </c>
       <c r="E25" t="s">
+        <v>48</v>
+      </c>
+      <c r="F25" t="s">
         <v>49</v>
-      </c>
-      <c r="F25" t="s">
-        <v>50</v>
       </c>
       <c r="G25" t="n">
         <v>1</v>
@@ -1488,10 +1485,10 @@
         <v>25</v>
       </c>
       <c r="E26" t="s">
+        <v>50</v>
+      </c>
+      <c r="F26" t="s">
         <v>51</v>
-      </c>
-      <c r="F26" t="s">
-        <v>52</v>
       </c>
       <c r="G26" t="n">
         <v>1</v>
@@ -1517,10 +1514,10 @@
         <v>26</v>
       </c>
       <c r="E27" t="s">
+        <v>52</v>
+      </c>
+      <c r="F27" t="s">
         <v>53</v>
-      </c>
-      <c r="F27" t="s">
-        <v>54</v>
       </c>
       <c r="G27" t="n">
         <v>1</v>
@@ -1546,10 +1543,10 @@
         <v>27</v>
       </c>
       <c r="E28" t="s">
+        <v>54</v>
+      </c>
+      <c r="F28" t="s">
         <v>55</v>
-      </c>
-      <c r="F28" t="s">
-        <v>56</v>
       </c>
       <c r="G28" t="n">
         <v>2</v>
@@ -1575,10 +1572,10 @@
         <v>28</v>
       </c>
       <c r="E29" t="s">
+        <v>56</v>
+      </c>
+      <c r="F29" t="s">
         <v>57</v>
-      </c>
-      <c r="F29" t="s">
-        <v>58</v>
       </c>
       <c r="G29" t="n">
         <v>3</v>
@@ -1604,10 +1601,10 @@
         <v>29</v>
       </c>
       <c r="E30" t="s">
+        <v>58</v>
+      </c>
+      <c r="F30" t="s">
         <v>59</v>
-      </c>
-      <c r="F30" t="s">
-        <v>60</v>
       </c>
       <c r="G30" t="n">
         <v>1</v>
@@ -1633,10 +1630,10 @@
         <v>30</v>
       </c>
       <c r="E31" t="s">
+        <v>60</v>
+      </c>
+      <c r="F31" t="s">
         <v>61</v>
-      </c>
-      <c r="F31" t="s">
-        <v>62</v>
       </c>
       <c r="G31" t="n">
         <v>1</v>
@@ -1662,10 +1659,10 @@
         <v>31</v>
       </c>
       <c r="E32" t="s">
+        <v>62</v>
+      </c>
+      <c r="F32" t="s">
         <v>63</v>
-      </c>
-      <c r="F32" t="s">
-        <v>64</v>
       </c>
       <c r="G32" t="n">
         <v>1</v>
@@ -1691,10 +1688,10 @@
         <v>32</v>
       </c>
       <c r="E33" t="s">
+        <v>64</v>
+      </c>
+      <c r="F33" t="s">
         <v>65</v>
-      </c>
-      <c r="F33" t="s">
-        <v>66</v>
       </c>
       <c r="G33" t="n">
         <v>1</v>
@@ -1720,10 +1717,10 @@
         <v>33</v>
       </c>
       <c r="E34" t="s">
+        <v>66</v>
+      </c>
+      <c r="F34" t="s">
         <v>67</v>
-      </c>
-      <c r="F34" t="s">
-        <v>68</v>
       </c>
       <c r="G34" t="n">
         <v>1</v>
@@ -1749,10 +1746,10 @@
         <v>34</v>
       </c>
       <c r="E35" t="s">
+        <v>68</v>
+      </c>
+      <c r="F35" t="s">
         <v>69</v>
-      </c>
-      <c r="F35" t="s">
-        <v>70</v>
       </c>
       <c r="G35" t="n">
         <v>1</v>
@@ -1778,10 +1775,10 @@
         <v>35</v>
       </c>
       <c r="E36" t="s">
+        <v>70</v>
+      </c>
+      <c r="F36" t="s">
         <v>71</v>
-      </c>
-      <c r="F36" t="s">
-        <v>72</v>
       </c>
       <c r="G36" t="n">
         <v>1</v>
@@ -1807,10 +1804,10 @@
         <v>36</v>
       </c>
       <c r="E37" t="s">
+        <v>72</v>
+      </c>
+      <c r="F37" t="s">
         <v>73</v>
-      </c>
-      <c r="F37" t="s">
-        <v>74</v>
       </c>
       <c r="G37" t="n">
         <v>1</v>
@@ -1836,10 +1833,10 @@
         <v>37</v>
       </c>
       <c r="E38" t="s">
+        <v>74</v>
+      </c>
+      <c r="F38" t="s">
         <v>75</v>
-      </c>
-      <c r="F38" t="s">
-        <v>76</v>
       </c>
       <c r="G38" t="n">
         <v>1</v>
@@ -1865,10 +1862,10 @@
         <v>38</v>
       </c>
       <c r="E39" t="s">
+        <v>76</v>
+      </c>
+      <c r="F39" t="s">
         <v>77</v>
-      </c>
-      <c r="F39" t="s">
-        <v>78</v>
       </c>
       <c r="G39" t="n">
         <v>1</v>
@@ -1894,10 +1891,10 @@
         <v>39</v>
       </c>
       <c r="E40" t="s">
+        <v>78</v>
+      </c>
+      <c r="F40" t="s">
         <v>79</v>
-      </c>
-      <c r="F40" t="s">
-        <v>80</v>
       </c>
       <c r="G40" t="n">
         <v>1</v>
@@ -1923,10 +1920,10 @@
         <v>40</v>
       </c>
       <c r="E41" t="s">
+        <v>80</v>
+      </c>
+      <c r="F41" t="s">
         <v>81</v>
-      </c>
-      <c r="F41" t="s">
-        <v>82</v>
       </c>
       <c r="G41" t="n">
         <v>1</v>
@@ -1952,10 +1949,10 @@
         <v>41</v>
       </c>
       <c r="E42" t="s">
+        <v>82</v>
+      </c>
+      <c r="F42" t="s">
         <v>83</v>
-      </c>
-      <c r="F42" t="s">
-        <v>84</v>
       </c>
       <c r="G42" t="n">
         <v>1</v>
@@ -1981,10 +1978,10 @@
         <v>42</v>
       </c>
       <c r="E43" t="s">
+        <v>84</v>
+      </c>
+      <c r="F43" t="s">
         <v>85</v>
-      </c>
-      <c r="F43" t="s">
-        <v>86</v>
       </c>
       <c r="G43" t="n">
         <v>1</v>
@@ -2010,10 +2007,10 @@
         <v>43</v>
       </c>
       <c r="E44" t="s">
+        <v>86</v>
+      </c>
+      <c r="F44" t="s">
         <v>87</v>
-      </c>
-      <c r="F44" t="s">
-        <v>88</v>
       </c>
       <c r="G44" t="n">
         <v>1</v>
@@ -2039,10 +2036,10 @@
         <v>44</v>
       </c>
       <c r="E45" t="s">
+        <v>88</v>
+      </c>
+      <c r="F45" t="s">
         <v>89</v>
-      </c>
-      <c r="F45" t="s">
-        <v>90</v>
       </c>
       <c r="G45" t="n">
         <v>1</v>
@@ -2068,10 +2065,10 @@
         <v>45</v>
       </c>
       <c r="E46" t="s">
+        <v>90</v>
+      </c>
+      <c r="F46" t="s">
         <v>91</v>
-      </c>
-      <c r="F46" t="s">
-        <v>92</v>
       </c>
       <c r="G46" t="n">
         <v>1</v>
@@ -2097,10 +2094,10 @@
         <v>46</v>
       </c>
       <c r="E47" t="s">
+        <v>92</v>
+      </c>
+      <c r="F47" t="s">
         <v>93</v>
-      </c>
-      <c r="F47" t="s">
-        <v>94</v>
       </c>
       <c r="G47" t="n">
         <v>1</v>
@@ -2126,10 +2123,10 @@
         <v>47</v>
       </c>
       <c r="E48" t="s">
+        <v>94</v>
+      </c>
+      <c r="F48" t="s">
         <v>95</v>
-      </c>
-      <c r="F48" t="s">
-        <v>96</v>
       </c>
       <c r="G48" t="n">
         <v>1</v>
@@ -2155,10 +2152,10 @@
         <v>48</v>
       </c>
       <c r="E49" t="s">
+        <v>96</v>
+      </c>
+      <c r="F49" t="s">
         <v>97</v>
-      </c>
-      <c r="F49" t="s">
-        <v>98</v>
       </c>
       <c r="G49" t="n">
         <v>1</v>
@@ -2184,10 +2181,10 @@
         <v>49</v>
       </c>
       <c r="E50" t="s">
+        <v>98</v>
+      </c>
+      <c r="F50" t="s">
         <v>99</v>
-      </c>
-      <c r="F50" t="s">
-        <v>100</v>
       </c>
       <c r="G50" t="n">
         <v>1</v>
@@ -2213,10 +2210,10 @@
         <v>50</v>
       </c>
       <c r="E51" t="s">
+        <v>100</v>
+      </c>
+      <c r="F51" t="s">
         <v>101</v>
-      </c>
-      <c r="F51" t="s">
-        <v>102</v>
       </c>
       <c r="G51" t="n">
         <v>1</v>
@@ -2242,10 +2239,10 @@
         <v>51</v>
       </c>
       <c r="E52" t="s">
+        <v>102</v>
+      </c>
+      <c r="F52" t="s">
         <v>103</v>
-      </c>
-      <c r="F52" t="s">
-        <v>104</v>
       </c>
       <c r="G52" t="n">
         <v>1</v>
@@ -2271,10 +2268,10 @@
         <v>52</v>
       </c>
       <c r="E53" t="s">
+        <v>104</v>
+      </c>
+      <c r="F53" t="s">
         <v>105</v>
-      </c>
-      <c r="F53" t="s">
-        <v>106</v>
       </c>
       <c r="G53" t="n">
         <v>1</v>
@@ -2300,10 +2297,10 @@
         <v>53</v>
       </c>
       <c r="E54" t="s">
+        <v>106</v>
+      </c>
+      <c r="F54" t="s">
         <v>107</v>
-      </c>
-      <c r="F54" t="s">
-        <v>108</v>
       </c>
       <c r="G54" t="n">
         <v>3</v>
@@ -2329,10 +2326,10 @@
         <v>54</v>
       </c>
       <c r="E55" t="s">
+        <v>108</v>
+      </c>
+      <c r="F55" t="s">
         <v>109</v>
-      </c>
-      <c r="F55" t="s">
-        <v>110</v>
       </c>
       <c r="G55" t="n">
         <v>1</v>
@@ -2358,10 +2355,10 @@
         <v>55</v>
       </c>
       <c r="E56" t="s">
+        <v>110</v>
+      </c>
+      <c r="F56" t="s">
         <v>111</v>
-      </c>
-      <c r="F56" t="s">
-        <v>112</v>
       </c>
       <c r="G56" t="n">
         <v>1</v>
@@ -2387,10 +2384,10 @@
         <v>56</v>
       </c>
       <c r="E57" t="s">
+        <v>112</v>
+      </c>
+      <c r="F57" t="s">
         <v>113</v>
-      </c>
-      <c r="F57" t="s">
-        <v>114</v>
       </c>
       <c r="G57" t="n">
         <v>1</v>
@@ -2416,10 +2413,10 @@
         <v>57</v>
       </c>
       <c r="E58" t="s">
+        <v>114</v>
+      </c>
+      <c r="F58" t="s">
         <v>115</v>
-      </c>
-      <c r="F58" t="s">
-        <v>116</v>
       </c>
       <c r="G58" t="n">
         <v>1</v>
@@ -2445,10 +2442,10 @@
         <v>58</v>
       </c>
       <c r="E59" t="s">
+        <v>116</v>
+      </c>
+      <c r="F59" t="s">
         <v>117</v>
-      </c>
-      <c r="F59" t="s">
-        <v>118</v>
       </c>
       <c r="G59" t="n">
         <v>1</v>
@@ -2474,10 +2471,10 @@
         <v>59</v>
       </c>
       <c r="E60" t="s">
+        <v>118</v>
+      </c>
+      <c r="F60" t="s">
         <v>119</v>
-      </c>
-      <c r="F60" t="s">
-        <v>120</v>
       </c>
       <c r="G60" t="n">
         <v>1</v>
@@ -2503,10 +2500,10 @@
         <v>60</v>
       </c>
       <c r="E61" t="s">
+        <v>120</v>
+      </c>
+      <c r="F61" t="s">
         <v>121</v>
-      </c>
-      <c r="F61" t="s">
-        <v>122</v>
       </c>
       <c r="G61" t="n">
         <v>1</v>
@@ -2532,10 +2529,10 @@
         <v>61</v>
       </c>
       <c r="E62" t="s">
+        <v>122</v>
+      </c>
+      <c r="F62" t="s">
         <v>123</v>
-      </c>
-      <c r="F62" t="s">
-        <v>124</v>
       </c>
       <c r="G62" t="n">
         <v>1</v>
@@ -2561,10 +2558,10 @@
         <v>62</v>
       </c>
       <c r="E63" t="s">
+        <v>124</v>
+      </c>
+      <c r="F63" t="s">
         <v>125</v>
-      </c>
-      <c r="F63" t="s">
-        <v>126</v>
       </c>
       <c r="G63" t="n">
         <v>1</v>
